--- a/ProductMatch/NGA/ProductMatch_2010.xlsx
+++ b/ProductMatch/NGA/ProductMatch_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\NGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F170C-6517-4E1E-9594-70CEDCE666D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D0702-01E8-446B-9F99-2CD31E74B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2CF790A-0C0E-4BC2-B764-944AE680B852}"/>
   </bookViews>
@@ -33,18 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="922">
   <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>CPC2.1 Code</t>
-  </si>
-  <si>
-    <t>CPC 2.1 Description</t>
-  </si>
-  <si>
     <t>0111</t>
   </si>
   <si>
@@ -2797,14 +2785,34 @@
   </si>
   <si>
     <t>043; 044; 045</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>CPC21Code</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2838,13 +2846,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3161,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D82087-CB30-4AC0-AA96-2B0D70F8A3F9}">
   <dimension ref="A1:D343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3170,578 +3179,578 @@
     <col min="1" max="1" width="8.77734375" style="4"/>
     <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="A1" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>2121</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31">
         <v>1101</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C32">
         <v>1201</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C33">
         <v>1202</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C36">
         <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C37">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C38">
         <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C39">
         <v>1105</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40">
         <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C41">
         <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3749,27 +3758,27 @@
         <v>1010</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C42">
         <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C43">
         <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3777,27 +3786,27 @@
         <v>1030</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C44">
         <v>213</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3805,55 +3814,55 @@
         <v>1050</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C46">
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C47">
         <v>231</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C48">
         <v>232</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C49">
         <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3861,13 +3870,13 @@
         <v>1072</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C50">
         <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3875,13 +3884,13 @@
         <v>1073</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C51">
         <v>236</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3889,13 +3898,13 @@
         <v>1074</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C52">
         <v>237</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3903,13 +3912,13 @@
         <v>1075</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C53">
         <v>23997</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3917,13 +3926,13 @@
         <v>1079</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54">
         <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3931,41 +3940,41 @@
         <v>1080</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C55">
         <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C56">
         <v>241</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C57">
         <v>242</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3973,13 +3982,13 @@
         <v>1103</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C58">
         <v>243</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3987,27 +3996,27 @@
         <v>1104</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C59">
         <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C60">
         <v>250</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4015,13 +4024,13 @@
         <v>1311</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4029,13 +4038,13 @@
         <v>1312</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4043,83 +4052,83 @@
         <v>1313</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C64">
         <v>281</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C65">
         <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C66">
         <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C67">
         <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -4127,27 +4136,27 @@
         <v>1410</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C69">
         <v>282</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -4155,7 +4164,7 @@
         <v>1430</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C71" s="2">
         <v>2791</v>
@@ -4164,86 +4173,86 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C73">
         <v>292</v>
       </c>
       <c r="D73" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C77">
         <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -4251,27 +4260,27 @@
         <v>1623</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C78">
         <v>317</v>
       </c>
       <c r="D78" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C79">
         <v>319</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -4279,13 +4288,13 @@
         <v>1701</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C80">
         <v>321</v>
       </c>
       <c r="D80" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -4293,13 +4302,13 @@
         <v>1702</v>
       </c>
       <c r="B81" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C81">
         <v>3215</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -4307,13 +4316,13 @@
         <v>1709</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C82">
         <v>3219</v>
       </c>
       <c r="D82" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -4321,13 +4330,13 @@
         <v>1811</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D83" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -4335,55 +4344,55 @@
         <v>1812</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C85">
         <v>331</v>
       </c>
       <c r="D85" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B86" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C87">
         <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -4391,13 +4400,13 @@
         <v>2012</v>
       </c>
       <c r="B88" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C88">
         <v>346</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -4405,13 +4414,13 @@
         <v>2013</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -4419,13 +4428,13 @@
         <v>2021</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C90">
         <v>346</v>
       </c>
       <c r="D90" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -4433,13 +4442,13 @@
         <v>2022</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C91">
         <v>351</v>
       </c>
       <c r="D91" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -4447,13 +4456,13 @@
         <v>2023</v>
       </c>
       <c r="B92" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C92">
         <v>353</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -4461,13 +4470,13 @@
         <v>2029</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C93">
         <v>354</v>
       </c>
       <c r="D93" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -4475,13 +4484,13 @@
         <v>2030</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C94">
         <v>355</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -4489,41 +4498,41 @@
         <v>2100</v>
       </c>
       <c r="B95" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C95">
         <v>352</v>
       </c>
       <c r="D95" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B96" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C96">
         <v>361</v>
       </c>
       <c r="D96" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B97" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C97">
         <v>362</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4531,13 +4540,13 @@
         <v>2220</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -4545,13 +4554,13 @@
         <v>2310</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C99">
         <v>371</v>
       </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4559,13 +4568,13 @@
         <v>2391</v>
       </c>
       <c r="B100" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C100">
         <v>373</v>
       </c>
       <c r="D100" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4573,13 +4582,13 @@
         <v>2392</v>
       </c>
       <c r="B101" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C101">
         <v>373</v>
       </c>
       <c r="D101" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4587,13 +4596,13 @@
         <v>2393</v>
       </c>
       <c r="B102" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C102">
         <v>372</v>
       </c>
       <c r="D102" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4601,13 +4610,13 @@
         <v>2394</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C103">
         <v>374</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4615,13 +4624,13 @@
         <v>2395</v>
       </c>
       <c r="B104" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C104">
         <v>375</v>
       </c>
       <c r="D104" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4629,13 +4638,13 @@
         <v>2396</v>
       </c>
       <c r="B105" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C105">
         <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4643,27 +4652,27 @@
         <v>2399</v>
       </c>
       <c r="B106" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C106">
         <v>379</v>
       </c>
       <c r="D106" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C107">
         <v>411</v>
       </c>
       <c r="D107" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4671,13 +4680,13 @@
         <v>2420</v>
       </c>
       <c r="B108" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -4685,13 +4694,13 @@
         <v>2431</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C109">
         <v>412</v>
       </c>
       <c r="D109" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -4699,13 +4708,13 @@
         <v>2511</v>
       </c>
       <c r="B110" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C110">
         <v>421</v>
       </c>
       <c r="D110" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -4713,13 +4722,13 @@
         <v>2512</v>
       </c>
       <c r="B111" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C111">
         <v>422</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -4727,13 +4736,13 @@
         <v>2513</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C112">
         <v>423</v>
       </c>
       <c r="D112" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -4741,13 +4750,13 @@
         <v>2520</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C113" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D113" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -4755,27 +4764,27 @@
         <v>2593</v>
       </c>
       <c r="B114" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C114">
         <v>429</v>
       </c>
       <c r="D114" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B115" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C115">
         <v>429</v>
       </c>
       <c r="D115" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -4783,125 +4792,125 @@
         <v>2610</v>
       </c>
       <c r="B116" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C116">
         <v>471</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B117" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C117">
         <v>452</v>
       </c>
       <c r="D117" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B118" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C118">
         <v>473</v>
       </c>
       <c r="D118" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B119" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C119">
         <v>472</v>
       </c>
       <c r="D119" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B120" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C120">
         <v>482</v>
       </c>
       <c r="D120" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B121" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C121">
         <v>484</v>
       </c>
       <c r="D121" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B122" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C122">
         <v>481</v>
       </c>
       <c r="D122" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C123">
         <v>483</v>
       </c>
       <c r="D123" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B124" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C124">
         <v>475</v>
       </c>
       <c r="D124" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4909,69 +4918,69 @@
         <v>2710</v>
       </c>
       <c r="B125" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C125" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D125" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B126" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C126">
         <v>464</v>
       </c>
       <c r="D126" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B127" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C127">
         <v>463</v>
       </c>
       <c r="D127" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C128">
         <v>463</v>
       </c>
       <c r="D128" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B129" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C129">
         <v>465</v>
       </c>
       <c r="D129" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4979,69 +4988,69 @@
         <v>2750</v>
       </c>
       <c r="B130" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C130">
         <v>448</v>
       </c>
       <c r="D130" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B131" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C131">
         <v>469</v>
       </c>
       <c r="D131" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B132" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C132">
         <v>431</v>
       </c>
       <c r="D132" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B133" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D133" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B134" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C134" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D134" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -5049,13 +5058,13 @@
         <v>2814</v>
       </c>
       <c r="B135" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C135">
         <v>433</v>
       </c>
       <c r="D135" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -5063,13 +5072,13 @@
         <v>2815</v>
       </c>
       <c r="B136" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C136">
         <v>434</v>
       </c>
       <c r="D136" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -5077,13 +5086,13 @@
         <v>2816</v>
       </c>
       <c r="B137" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C137">
         <v>435</v>
       </c>
       <c r="D137" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -5091,13 +5100,13 @@
         <v>2817</v>
       </c>
       <c r="B138" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C138">
         <v>451</v>
       </c>
       <c r="D138" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -5105,13 +5114,13 @@
         <v>2818</v>
       </c>
       <c r="B139" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C139">
         <v>4423</v>
       </c>
       <c r="D139" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -5119,13 +5128,13 @@
         <v>2819</v>
       </c>
       <c r="B140" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C140">
         <v>439</v>
       </c>
       <c r="D140" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -5133,13 +5142,13 @@
         <v>2821</v>
       </c>
       <c r="B141" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C141">
         <v>441</v>
       </c>
       <c r="D141" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -5147,13 +5156,13 @@
         <v>2822</v>
       </c>
       <c r="B142" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C142" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D142" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -5161,13 +5170,13 @@
         <v>2823</v>
       </c>
       <c r="B143" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C143">
         <v>443</v>
       </c>
       <c r="D143" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -5175,13 +5184,13 @@
         <v>2824</v>
       </c>
       <c r="B144" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C144">
         <v>444</v>
       </c>
       <c r="D144" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -5189,13 +5198,13 @@
         <v>2825</v>
       </c>
       <c r="B145" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C145">
         <v>445</v>
       </c>
       <c r="D145" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -5203,13 +5212,13 @@
         <v>2826</v>
       </c>
       <c r="B146" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C146">
         <v>446</v>
       </c>
       <c r="D146" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -5217,41 +5226,41 @@
         <v>2829</v>
       </c>
       <c r="B147" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C147">
         <v>449</v>
       </c>
       <c r="D147" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B148" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C148">
         <v>4911</v>
       </c>
       <c r="D148" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B149" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C149">
         <v>492</v>
       </c>
       <c r="D149" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -5259,139 +5268,139 @@
         <v>2930</v>
       </c>
       <c r="B150" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C150">
         <v>4912</v>
       </c>
       <c r="D150" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B151" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C151">
         <v>493</v>
       </c>
       <c r="D151" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B152" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C152">
         <v>494</v>
       </c>
       <c r="D152" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B153" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C153">
         <v>495</v>
       </c>
       <c r="D153" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B154" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C154">
         <v>496</v>
       </c>
       <c r="D154" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B155" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C155">
         <v>4471</v>
       </c>
       <c r="D155" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B156" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C156">
         <v>4991</v>
       </c>
       <c r="D156" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B157" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C157">
         <v>4992</v>
       </c>
       <c r="D157" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B158" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C158" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D158" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B159" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C159">
         <v>381</v>
       </c>
       <c r="D159" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -5399,13 +5408,13 @@
         <v>3211</v>
       </c>
       <c r="B160" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C160">
         <v>382</v>
       </c>
       <c r="D160" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -5413,13 +5422,13 @@
         <v>3212</v>
       </c>
       <c r="B161" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C161" s="2">
         <v>382</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -5427,102 +5436,102 @@
         <v>3220</v>
       </c>
       <c r="B162" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C162">
         <v>383</v>
       </c>
       <c r="D162" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B163" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C163">
         <v>384</v>
       </c>
       <c r="D163" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B164" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C164">
         <v>385</v>
       </c>
       <c r="D164" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B165" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C165">
         <v>481</v>
       </c>
       <c r="D165" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B166" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C166" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B167" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B168" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B169" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -5530,43 +5539,43 @@
         <v>3314</v>
       </c>
       <c r="B170" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B171" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B172" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B173" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -5574,10 +5583,10 @@
         <v>3520</v>
       </c>
       <c r="B174" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -5585,32 +5594,32 @@
         <v>3600</v>
       </c>
       <c r="B175" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B176" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B177" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -5618,21 +5627,21 @@
         <v>3812</v>
       </c>
       <c r="B178" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B179" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5640,13 +5649,13 @@
         <v>4100</v>
       </c>
       <c r="B180" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C180">
         <v>531</v>
       </c>
       <c r="D180" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5654,13 +5663,13 @@
         <v>4210</v>
       </c>
       <c r="B181" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C181">
         <v>5321</v>
       </c>
       <c r="D181" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5668,13 +5677,13 @@
         <v>4220</v>
       </c>
       <c r="B182" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D182" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5682,13 +5691,13 @@
         <v>4290</v>
       </c>
       <c r="B183" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D183" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,13 +5705,13 @@
         <v>4311</v>
       </c>
       <c r="B184" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C184">
         <v>5431</v>
       </c>
       <c r="D184" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5710,13 +5719,13 @@
         <v>4312</v>
       </c>
       <c r="B185" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D185" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5724,13 +5733,13 @@
         <v>4321</v>
       </c>
       <c r="B186" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C186">
         <v>5461</v>
       </c>
       <c r="D186" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5738,13 +5747,13 @@
         <v>4322</v>
       </c>
       <c r="B187" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D187" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5752,13 +5761,13 @@
         <v>4329</v>
       </c>
       <c r="B188" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D188" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -5766,13 +5775,13 @@
         <v>4330</v>
       </c>
       <c r="B189" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C189">
         <v>547</v>
       </c>
       <c r="D189" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5780,24 +5789,24 @@
         <v>4390</v>
       </c>
       <c r="B190" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C190" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D190" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B191" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -5805,10 +5814,10 @@
         <v>4530</v>
       </c>
       <c r="B192" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -5816,24 +5825,24 @@
         <v>4540</v>
       </c>
       <c r="B193" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B194" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C194" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D194" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5841,13 +5850,13 @@
         <v>4630</v>
       </c>
       <c r="B195" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D195" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -5855,13 +5864,13 @@
         <v>4719</v>
       </c>
       <c r="B196" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C196">
         <v>621</v>
       </c>
       <c r="D196" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -5869,13 +5878,13 @@
         <v>4730</v>
       </c>
       <c r="B197" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C197">
         <v>62291</v>
       </c>
       <c r="D197" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5883,13 +5892,13 @@
         <v>4759</v>
       </c>
       <c r="B198" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C198">
         <v>6224</v>
       </c>
       <c r="D198" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -5897,13 +5906,13 @@
         <v>4763</v>
       </c>
       <c r="B199" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C199">
         <v>62255</v>
       </c>
       <c r="D199" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5911,13 +5920,13 @@
         <v>4771</v>
       </c>
       <c r="B200" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C200">
         <v>6223</v>
       </c>
       <c r="D200" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5925,13 +5934,13 @@
         <v>4791</v>
       </c>
       <c r="B201" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C201">
         <v>623</v>
       </c>
       <c r="D201" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5939,13 +5948,13 @@
         <v>4911</v>
       </c>
       <c r="B202" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C202">
         <v>6421</v>
       </c>
       <c r="D202" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5953,13 +5962,13 @@
         <v>4912</v>
       </c>
       <c r="B203" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C203">
         <v>6512</v>
       </c>
       <c r="D203" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5967,13 +5976,13 @@
         <v>4921</v>
       </c>
       <c r="B204" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C204">
         <v>6411</v>
       </c>
       <c r="D204" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5981,13 +5990,13 @@
         <v>4922</v>
       </c>
       <c r="B205" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C205" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D205" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5995,13 +6004,13 @@
         <v>4923</v>
       </c>
       <c r="B206" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C206">
         <v>6511</v>
       </c>
       <c r="D206" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -6009,13 +6018,13 @@
         <v>4930</v>
       </c>
       <c r="B207" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C207">
         <v>6513</v>
       </c>
       <c r="D207" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -6023,13 +6032,13 @@
         <v>5011</v>
       </c>
       <c r="B208" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C208" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D208" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -6037,13 +6046,13 @@
         <v>5012</v>
       </c>
       <c r="B209" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C209">
         <v>6521</v>
       </c>
       <c r="D209" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -6051,13 +6060,13 @@
         <v>5021</v>
       </c>
       <c r="B210" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C210" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D210" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -6065,181 +6074,181 @@
         <v>5022</v>
       </c>
       <c r="B211" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C211">
         <v>6522</v>
       </c>
       <c r="D211" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B212" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C212" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D212" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B213" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C213">
         <v>653</v>
       </c>
       <c r="D213" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B214" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C214">
         <v>672</v>
       </c>
       <c r="D214" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B215" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C215" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D215" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B216" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C216">
         <v>675</v>
       </c>
       <c r="D216" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B217" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C217">
         <v>676</v>
       </c>
       <c r="D217" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B218" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C218">
         <v>671</v>
       </c>
       <c r="D218" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B219" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C219">
         <v>672</v>
       </c>
       <c r="D219" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B220" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C220">
         <v>6801</v>
       </c>
       <c r="D220" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B221" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C221">
         <v>6802</v>
       </c>
       <c r="D221" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B222" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C222">
         <v>6311</v>
       </c>
       <c r="D222" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B223" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C223" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D223" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -6247,27 +6256,27 @@
         <v>5590</v>
       </c>
       <c r="B224" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C224">
         <v>632</v>
       </c>
       <c r="D224" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B225" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C225" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D225" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -6275,13 +6284,13 @@
         <v>5621</v>
       </c>
       <c r="B226" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C226">
         <v>63391</v>
       </c>
       <c r="D226" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -6289,96 +6298,96 @@
         <v>5629</v>
       </c>
       <c r="B227" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C227" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D227" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B228" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C228">
         <v>634</v>
       </c>
       <c r="D228" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B229" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B230" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B231" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B232" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B233" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B234" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C234">
         <v>9612</v>
       </c>
       <c r="D234" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -6386,55 +6395,55 @@
         <v>5912</v>
       </c>
       <c r="B235" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C235">
         <v>9613</v>
       </c>
       <c r="D235" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B236" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C236">
         <v>9614</v>
       </c>
       <c r="D236" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B237" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C237">
         <v>9615</v>
       </c>
       <c r="D237" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B238" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C238">
         <v>9611</v>
       </c>
       <c r="D238" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -6442,13 +6451,13 @@
         <v>6010</v>
       </c>
       <c r="B239" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C239">
         <v>84611</v>
       </c>
       <c r="D239" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -6456,13 +6465,13 @@
         <v>6020</v>
       </c>
       <c r="B240" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C240" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D240" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -6470,13 +6479,13 @@
         <v>6110</v>
       </c>
       <c r="B241" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C241">
         <v>8412</v>
       </c>
       <c r="D241" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -6484,74 +6493,74 @@
         <v>6120</v>
       </c>
       <c r="B242" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C242">
         <v>8413</v>
       </c>
       <c r="D242" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B243" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B244" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B245" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B246" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C246">
         <v>7111</v>
       </c>
       <c r="D246" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B247" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D247" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -6559,13 +6568,13 @@
         <v>6430</v>
       </c>
       <c r="B248" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C248">
         <v>7154</v>
       </c>
       <c r="D248" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6573,27 +6582,27 @@
         <v>6491</v>
       </c>
       <c r="B249" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C249">
         <v>7114</v>
       </c>
       <c r="D249" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B250" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C250">
         <v>7119</v>
       </c>
       <c r="D250" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6601,41 +6610,41 @@
         <v>6511</v>
       </c>
       <c r="B251" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C251">
         <v>71311</v>
       </c>
       <c r="D251" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B252" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C252">
         <v>7133</v>
       </c>
       <c r="D252" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B253" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C253">
         <v>714</v>
       </c>
       <c r="D253" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6643,27 +6652,27 @@
         <v>6530</v>
       </c>
       <c r="B254" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C254" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D254" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B255" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C255">
         <v>7159</v>
       </c>
       <c r="D255" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6671,27 +6680,27 @@
         <v>6622</v>
       </c>
       <c r="B256" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C256">
         <v>7161</v>
       </c>
       <c r="D256" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B257" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C257">
         <v>7169</v>
       </c>
       <c r="D257" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6699,83 +6708,83 @@
         <v>6810</v>
       </c>
       <c r="B258" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C258">
         <v>721</v>
       </c>
       <c r="D258" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B259" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C259">
         <v>722</v>
       </c>
       <c r="D259" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B260" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C260">
         <v>821</v>
       </c>
       <c r="D260" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B261" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C261" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D261" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B262" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C262">
         <v>83118</v>
       </c>
       <c r="D262" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B263" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C263">
         <v>8311</v>
       </c>
       <c r="D263" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6783,13 +6792,13 @@
         <v>7110</v>
       </c>
       <c r="B264" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C264" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D264" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6797,13 +6806,13 @@
         <v>7120</v>
       </c>
       <c r="B265" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C265">
         <v>8344</v>
       </c>
       <c r="D265" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6811,13 +6820,13 @@
         <v>7210</v>
       </c>
       <c r="B266" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C266">
         <v>811</v>
       </c>
       <c r="D266" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6825,13 +6834,13 @@
         <v>7220</v>
       </c>
       <c r="B267" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C267">
         <v>812</v>
       </c>
       <c r="D267" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6839,55 +6848,55 @@
         <v>7310</v>
       </c>
       <c r="B268" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C268">
         <v>8361</v>
       </c>
       <c r="D268" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B269" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C269">
         <v>837</v>
       </c>
       <c r="D269" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B270" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C270">
         <v>8391</v>
       </c>
       <c r="D270" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B271" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C271">
         <v>838</v>
       </c>
       <c r="D271" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6895,27 +6904,27 @@
         <v>7490</v>
       </c>
       <c r="B272" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C272">
         <v>839</v>
       </c>
       <c r="D272" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B273" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C273">
         <v>835</v>
       </c>
       <c r="D273" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6923,13 +6932,13 @@
         <v>7710</v>
       </c>
       <c r="B274" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C274">
         <v>73112</v>
       </c>
       <c r="D274" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6937,13 +6946,13 @@
         <v>7721</v>
       </c>
       <c r="B275" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C275">
         <v>7324</v>
       </c>
       <c r="D275" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -6951,13 +6960,13 @@
         <v>7722</v>
       </c>
       <c r="B276" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C276">
         <v>7322</v>
       </c>
       <c r="D276" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -6965,13 +6974,13 @@
         <v>7729</v>
       </c>
       <c r="B277" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C277" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D277" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6979,41 +6988,41 @@
         <v>7730</v>
       </c>
       <c r="B278" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C278">
         <v>7312</v>
       </c>
       <c r="D278" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B279" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C279">
         <v>733</v>
       </c>
       <c r="D279" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B280" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C280" s="2">
         <v>851</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -7021,13 +7030,13 @@
         <v>7911</v>
       </c>
       <c r="B281" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C281" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D281" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -7035,13 +7044,13 @@
         <v>7912</v>
       </c>
       <c r="B282" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C282">
         <v>8554</v>
       </c>
       <c r="D282" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -7049,13 +7058,13 @@
         <v>7990</v>
       </c>
       <c r="B283" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C283">
         <v>8553</v>
       </c>
       <c r="D283" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -7063,13 +7072,13 @@
         <v>8010</v>
       </c>
       <c r="B284" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C284" s="2">
         <v>852</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -7077,13 +7086,13 @@
         <v>8121</v>
       </c>
       <c r="B285" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C285">
         <v>8533</v>
       </c>
       <c r="D285" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -7091,27 +7100,27 @@
         <v>8129</v>
       </c>
       <c r="B286" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C286" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D286" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B287" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C287">
         <v>8597</v>
       </c>
       <c r="D287" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -7119,74 +7128,74 @@
         <v>8219</v>
       </c>
       <c r="B288" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C288">
         <v>85954</v>
       </c>
       <c r="D288" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B289" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C289" s="2">
         <v>86</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B290" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C290">
         <v>854</v>
       </c>
       <c r="D290" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B291" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B292" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B293" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -7194,10 +7203,10 @@
         <v>8421</v>
       </c>
       <c r="B294" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -7205,13 +7214,13 @@
         <v>8422</v>
       </c>
       <c r="B295" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C295" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D295" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -7219,13 +7228,13 @@
         <v>8423</v>
       </c>
       <c r="B296" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C296" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D296" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -7233,27 +7242,27 @@
         <v>8430</v>
       </c>
       <c r="B297" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C297">
         <v>913</v>
       </c>
       <c r="D297" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B298" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C298" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D298" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -7261,13 +7270,13 @@
         <v>8521</v>
       </c>
       <c r="B299" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C299" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D299" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -7275,13 +7284,13 @@
         <v>8522</v>
       </c>
       <c r="B300" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C300" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D300" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -7289,13 +7298,13 @@
         <v>8530</v>
       </c>
       <c r="B301" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C301">
         <v>925</v>
       </c>
       <c r="D301" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -7303,13 +7312,13 @@
         <v>8541</v>
       </c>
       <c r="B302" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C302">
         <v>92912</v>
       </c>
       <c r="D302" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -7317,13 +7326,13 @@
         <v>8542</v>
       </c>
       <c r="B303" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C303">
         <v>92911</v>
       </c>
       <c r="D303" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -7331,13 +7340,13 @@
         <v>8549</v>
       </c>
       <c r="B304" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C304">
         <v>92919</v>
       </c>
       <c r="D304" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -7345,27 +7354,27 @@
         <v>8550</v>
       </c>
       <c r="B305" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C305">
         <v>9292</v>
       </c>
       <c r="D305" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B306" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C306">
         <v>9311</v>
       </c>
       <c r="D306" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -7373,27 +7382,27 @@
         <v>8620</v>
       </c>
       <c r="B307" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C307">
         <v>9312</v>
       </c>
       <c r="D307" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B308" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C308">
         <v>9319</v>
       </c>
       <c r="D308" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -7401,10 +7410,10 @@
         <v>8710</v>
       </c>
       <c r="B309" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -7412,13 +7421,13 @@
         <v>8720</v>
       </c>
       <c r="B310" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D310" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -7426,13 +7435,13 @@
         <v>8730</v>
       </c>
       <c r="B311" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D311" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -7440,13 +7449,13 @@
         <v>8790</v>
       </c>
       <c r="B312" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C312" s="2">
         <v>933</v>
       </c>
       <c r="D312" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -7454,13 +7463,13 @@
         <v>8810</v>
       </c>
       <c r="B313" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C313">
         <v>934</v>
       </c>
       <c r="D313" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -7468,13 +7477,13 @@
         <v>8890</v>
       </c>
       <c r="B314" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C314">
         <v>935</v>
       </c>
       <c r="D314" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -7482,38 +7491,38 @@
         <v>9000</v>
       </c>
       <c r="B315" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C315" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D315" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B316" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B317" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C317">
         <v>9641</v>
       </c>
       <c r="D317" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -7521,27 +7530,27 @@
         <v>9103</v>
       </c>
       <c r="B318" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C318">
         <v>9642</v>
       </c>
       <c r="D318" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B319" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C319">
         <v>9692</v>
       </c>
       <c r="D319" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -7549,13 +7558,13 @@
         <v>9311</v>
       </c>
       <c r="B320" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C320">
         <v>9652</v>
       </c>
       <c r="D320" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -7563,13 +7572,13 @@
         <v>9312</v>
       </c>
       <c r="B321" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C321">
         <v>96512</v>
       </c>
       <c r="D321" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -7577,13 +7586,13 @@
         <v>9319</v>
       </c>
       <c r="B322" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C322">
         <v>9659</v>
       </c>
       <c r="D322" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -7591,13 +7600,13 @@
         <v>9321</v>
       </c>
       <c r="B323" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C323">
         <v>9691</v>
       </c>
       <c r="D323" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -7605,13 +7614,13 @@
         <v>9329</v>
       </c>
       <c r="B324" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C324">
         <v>9699</v>
       </c>
       <c r="D324" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -7619,13 +7628,13 @@
         <v>9411</v>
       </c>
       <c r="B325" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C325">
         <v>9511</v>
       </c>
       <c r="D325" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -7633,13 +7642,13 @@
         <v>9412</v>
       </c>
       <c r="B326" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C326">
         <v>9512</v>
       </c>
       <c r="D326" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -7647,13 +7656,13 @@
         <v>9420</v>
       </c>
       <c r="B327" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C327">
         <v>952</v>
       </c>
       <c r="D327" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -7661,13 +7670,13 @@
         <v>9491</v>
       </c>
       <c r="B328" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C328">
         <v>9591</v>
       </c>
       <c r="D328" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -7675,13 +7684,13 @@
         <v>9492</v>
       </c>
       <c r="B329" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C329">
         <v>9592</v>
       </c>
       <c r="D329" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -7689,13 +7698,13 @@
         <v>9499</v>
       </c>
       <c r="B330" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C330">
         <v>9599</v>
       </c>
       <c r="D330" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -7703,13 +7712,13 @@
         <v>9511</v>
       </c>
       <c r="B331" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C331">
         <v>8713</v>
       </c>
       <c r="D331" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -7717,13 +7726,13 @@
         <v>9512</v>
       </c>
       <c r="B332" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C332">
         <v>87153</v>
       </c>
       <c r="D332" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -7731,13 +7740,13 @@
         <v>9521</v>
       </c>
       <c r="B333" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C333">
         <v>87152</v>
       </c>
       <c r="D333" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -7745,13 +7754,13 @@
         <v>9522</v>
       </c>
       <c r="B334" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C334">
         <v>87151</v>
       </c>
       <c r="D334" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -7759,13 +7768,13 @@
         <v>9523</v>
       </c>
       <c r="B335" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C335">
         <v>8721</v>
       </c>
       <c r="D335" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -7773,13 +7782,13 @@
         <v>9524</v>
       </c>
       <c r="B336" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C336">
         <v>8724</v>
       </c>
       <c r="D336" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -7787,13 +7796,13 @@
         <v>9529</v>
       </c>
       <c r="B337" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C337">
         <v>8729</v>
       </c>
       <c r="D337" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -7801,13 +7810,13 @@
         <v>9601</v>
       </c>
       <c r="B338" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C338">
         <v>971</v>
       </c>
       <c r="D338" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -7815,13 +7824,13 @@
         <v>9602</v>
       </c>
       <c r="B339" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C339">
         <v>972</v>
       </c>
       <c r="D339" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -7829,13 +7838,13 @@
         <v>9603</v>
       </c>
       <c r="B340" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C340">
         <v>973</v>
       </c>
       <c r="D340" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -7843,13 +7852,13 @@
         <v>9609</v>
       </c>
       <c r="B341" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C341">
         <v>979</v>
       </c>
       <c r="D341" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -7857,13 +7866,13 @@
         <v>9700</v>
       </c>
       <c r="B342" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C342">
         <v>98</v>
       </c>
       <c r="D342" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -7871,13 +7880,13 @@
         <v>9900</v>
       </c>
       <c r="B343" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C343">
         <v>99</v>
       </c>
       <c r="D343" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
